--- a/ILRG_ORAM_E_encontros_assocs/ILRG_ORAM_E_encontros_assocs-media/ILRG_ORAM_E_encontros_assocs.xlsx
+++ b/ILRG_ORAM_E_encontros_assocs/ILRG_ORAM_E_encontros_assocs-media/ILRG_ORAM_E_encontros_assocs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_E_encontros_assocs\ILRG_ORAM_E_encontros_assocs-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_E_encontros_assocs\ILRG_ORAM_E_encontros_assocs-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D7771-1338-458B-BF38-0FCB75AEB922}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E4B19-68F8-4E8E-B0FC-86A8D2F6753A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1200">
   <si>
     <t>type</t>
   </si>
@@ -3660,9 +3660,6 @@
     <t>constitution</t>
   </si>
   <si>
-    <t>ILRG_ORAM_E</t>
-  </si>
-  <si>
     <t>concat('Meetings_Assoc','_',${village_id},'_',${date})</t>
   </si>
   <si>
@@ -3672,16 +3669,32 @@
     <t>select_multiple institutions</t>
   </si>
   <si>
-    <t>select_multiple_external villages</t>
+    <t>PV040601070</t>
+  </si>
+  <si>
+    <t>Jagarra</t>
+  </si>
+  <si>
+    <t>ILRG_ORAM_E_V1</t>
+  </si>
+  <si>
+    <t>select_one_external villages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3966,419 +3979,426 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="240">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="239" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="239"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="239" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="239"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="240">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4618,6 +4638,7 @@
     <cellStyle name="Normal 3 2 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
     <cellStyle name="Normal 3 2 2 2 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
     <cellStyle name="Normal 3 2 2 2 3" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 3 2 2 2 3 2" xfId="240" xr:uid="{B22E2FF6-D107-410A-AE2B-D8B9F6566938}"/>
     <cellStyle name="Normal 3 2 2 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4958,10 +4979,10 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,8 +5282,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
-        <v>1197</v>
+      <c r="A20" s="86" t="s">
+        <v>1199</v>
       </c>
       <c r="B20" s="75" t="s">
         <v>1124</v>
@@ -5346,7 +5367,7 @@
     </row>
     <row r="26" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B26" s="70" t="s">
         <v>1128</v>
@@ -5505,6 +5526,9 @@
       <c r="C34" s="26" t="s">
         <v>1058</v>
       </c>
+      <c r="J34" s="87" t="s">
+        <v>23</v>
+      </c>
       <c r="L34" s="24" t="s">
         <v>73</v>
       </c>
@@ -5518,6 +5542,9 @@
       </c>
       <c r="C35" s="26" t="s">
         <v>1059</v>
+      </c>
+      <c r="J35" s="87" t="s">
+        <v>23</v>
       </c>
       <c r="L35" s="24" t="s">
         <v>73</v>
@@ -6260,7 +6287,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
+      <selection pane="bottomLeft" activeCell="C546" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14185,9 +14212,20 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="58"/>
-      <c r="B540" s="62"/>
-      <c r="C540" s="55"/>
+      <c r="A540" s="83" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B540" s="84" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C540" s="85" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D540" s="84"/>
+      <c r="E540" s="84"/>
+      <c r="F540" s="84" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="58"/>
@@ -31542,7 +31580,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31570,16 +31608,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C2" s="81">
+        <v>201904022</v>
+      </c>
+      <c r="D2" s="69" t="s">
         <v>1193</v>
-      </c>
-      <c r="C2" s="81">
-        <v>201902281</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>1194</v>
       </c>
     </row>
   </sheetData>

--- a/ILRG_ORAM_E_encontros_assocs/ILRG_ORAM_E_encontros_assocs-media/ILRG_ORAM_E_encontros_assocs.xlsx
+++ b/ILRG_ORAM_E_encontros_assocs/ILRG_ORAM_E_encontros_assocs-media/ILRG_ORAM_E_encontros_assocs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_E_encontros_assocs\ILRG_ORAM_E_encontros_assocs-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E4B19-68F8-4E8E-B0FC-86A8D2F6753A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AEDC2B-C6FA-469C-A987-C0D46304B262}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$32</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="1222">
   <si>
     <t>type</t>
   </si>
@@ -3680,14 +3680,87 @@
   <si>
     <t>select_one_external villages</t>
   </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3981,421 +4054,429 @@
   </borders>
   <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="239" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="239"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="239" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="239"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="241">
@@ -4978,7 +5059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5640,13 +5721,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5675,607 +5756,749 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="89" t="s">
         <v>1153</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="90" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="89" t="s">
         <v>1092</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="90" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="89" t="s">
         <v>1155</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="90" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="89" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="89" t="s">
         <v>1157</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C10" s="90" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B11" s="89" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="89" t="s">
         <v>1159</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C13" s="90" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B14" s="89" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="89" t="s">
         <v>1161</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C16" s="90" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B17" s="89" t="s">
         <v>1163</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C17" s="90" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B18" s="89" t="s">
         <v>1165</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C18" s="90" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B19" s="89" t="s">
         <v>1167</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C19" s="90" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B20" s="89" t="s">
         <v>1169</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C20" s="90" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B21" s="89" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C22" s="91" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="89" t="s">
         <v>1171</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C23" s="90" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B24" s="89" t="s">
         <v>1173</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C24" s="90" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B25" s="89" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="89" t="s">
         <v>1151</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C27" s="88" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="31"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="72"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="31"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B32" s="77" t="s">
         <v>1150</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="35"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B34" s="77" t="s">
         <v>1147</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C34" s="43" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B35" s="77" t="s">
         <v>1148</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C35" s="55" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B36" s="77" t="s">
         <v>1149</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C36" s="55" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B37" s="77" t="s">
         <v>1151</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C37" s="72" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B39" s="79" t="s">
         <v>1186</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C39" s="80" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B40" s="79" t="s">
         <v>1187</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C40" s="80" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B41" s="79" t="s">
         <v>1188</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C41" s="80" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B42" s="79" t="s">
         <v>1189</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C42" s="80" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B43" s="79" t="s">
         <v>1190</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C43" s="80" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B44" s="79" t="s">
         <v>1191</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C44" s="80" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B45" s="79" t="s">
         <v>1192</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C45" s="80" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B46" s="79" t="s">
         <v>1151</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C46" s="80" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="72" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B34" s="77" t="s">
+      <c r="B48" s="77" t="s">
         <v>1175</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="72"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
+      <c r="D48" s="72"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B49" s="77" t="s">
         <v>1176</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="72"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="D49" s="72"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B36" s="77" t="s">
+      <c r="B50" s="77" t="s">
         <v>1177</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="72"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="72" t="s">
+      <c r="D50" s="72"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B51" s="77" t="s">
         <v>1178</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="72"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="D51" s="72"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B38" s="77" t="s">
+      <c r="B52" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C52" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="72"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="72" t="s">
+      <c r="D52" s="72"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B39" s="77" t="s">
+      <c r="B53" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C53" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="72"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="D53" s="72"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B40" s="77" t="s">
+      <c r="B54" s="77" t="s">
         <v>1179</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C54" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="72"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="72" t="s">
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B41" s="77" t="s">
+      <c r="B55" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="72"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="D55" s="72"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B56" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="72"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+      <c r="D56" s="72"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="72" t="s">
         <v>1114</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B57" s="77" t="s">
         <v>1151</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="72"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="D57" s="72"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B59" s="77" t="s">
         <v>1180</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B60" s="77" t="s">
         <v>1181</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B61" s="77" t="s">
         <v>1182</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B62" s="77" t="s">
         <v>1183</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C62" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B63" s="77" t="s">
         <v>1184</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B65" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C65" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B66" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C66" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B67" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C67" s="28" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B68" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C68" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B69" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C69" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B70" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C70" s="28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B71" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C71" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B72" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C72" s="28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B73" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C73" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B74" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C74" s="30" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -31580,7 +31803,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31614,7 +31837,7 @@
         <v>1198</v>
       </c>
       <c r="C2" s="81">
-        <v>201904022</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="69" t="s">
         <v>1193</v>
